--- a/1125-E.218/T-SP-E.218-2017.xlsx
+++ b/1125-E.218/T-SP-E.218-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/1125-E.218/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E19CA08-752A-774B-9017-F63B3EF0DA0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F07EA0-643F-1C41-9850-384FB2540C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1409">
   <si>
     <t>title.en</t>
   </si>
@@ -862,18 +862,6 @@
     <t>Réservé</t>
   </si>
   <si>
-    <t>country_or_area_en</t>
-  </si>
-  <si>
-    <t>country_or_area_fr</t>
-  </si>
-  <si>
-    <t>note_en</t>
-  </si>
-  <si>
-    <t>note_fr</t>
-  </si>
-  <si>
     <t>Grèce</t>
   </si>
   <si>
@@ -1495,12 +1483,6 @@
     <t>Emirats arabes unis, Dubai: 431; Abu Dhabi: 430.</t>
   </si>
   <si>
-    <t>country_or_area_es</t>
-  </si>
-  <si>
-    <t>note_es</t>
-  </si>
-  <si>
     <t>LISTA DE INDICATIVOS DE PAÍS PARA EL SERVICIO MÓVIL DE RADIOCOMUNICACIÓN CON CONCENTRACIÓN DE ENLACES TERRENALES v</t>
   </si>
   <si>
@@ -2116,12 +2098,6 @@
     <t>Emiratos Arabes Unidos, Dubai: 431; Abu Dhabi: 430.</t>
   </si>
   <si>
-    <t>country_or_area_ru</t>
-  </si>
-  <si>
-    <t>note_ru</t>
-  </si>
-  <si>
     <t>СПИСОК КОДОВ СТРАНЫ ДЛЯ ПОДВИЖНОЙ СВЯЗИ В СИСТЕМЕ НАЗЕМНОЙ ТРАНКИНГОВОЙ РАДИОСВЯЗИ</t>
   </si>
   <si>
@@ -2845,15 +2821,6 @@
     <t>预留</t>
   </si>
   <si>
-    <t>country_or_area_zh</t>
-  </si>
-  <si>
-    <t>note_zh</t>
-  </si>
-  <si>
-    <t>note_ar</t>
-  </si>
-  <si>
     <t>希腊</t>
   </si>
   <si>
@@ -3539,9 +3506,6 @@
   </si>
   <si>
     <t>محجوز</t>
-  </si>
-  <si>
-    <t>country_or_area_ar</t>
   </si>
   <si>
     <t>اليونان</t>
@@ -4291,6 +4255,45 @@
       <t xml:space="preserve"> الديمقراطية</t>
     </r>
   </si>
+  <si>
+    <t>country_or_area.en</t>
+  </si>
+  <si>
+    <t>country_or_area.fr</t>
+  </si>
+  <si>
+    <t>country_or_area.es</t>
+  </si>
+  <si>
+    <t>country_or_area.ru</t>
+  </si>
+  <si>
+    <t>country_or_area.zh</t>
+  </si>
+  <si>
+    <t>country_or_area.ar</t>
+  </si>
+  <si>
+    <t>note.en</t>
+  </si>
+  <si>
+    <t>note.fr</t>
+  </si>
+  <si>
+    <t>note.es</t>
+  </si>
+  <si>
+    <t>note.ru</t>
+  </si>
+  <si>
+    <t>note.zh</t>
+  </si>
+  <si>
+    <t>note.ar</t>
+  </si>
+  <si>
+    <t>type=array</t>
+  </si>
 </sst>
 </file>
 
@@ -4308,6 +4311,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4687,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4729,7 +4733,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4737,7 +4741,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4745,7 +4749,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4753,7 +4757,7 @@
         <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4825,7 +4829,7 @@
         <v>257</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4833,7 +4837,7 @@
         <v>258</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4841,7 +4845,7 @@
         <v>259</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4849,7 +4853,7 @@
         <v>260</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4857,7 +4861,7 @@
         <v>261</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4865,7 +4869,7 @@
         <v>262</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4873,7 +4877,7 @@
         <v>263</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4881,7 +4885,7 @@
         <v>264</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4889,7 +4893,7 @@
         <v>265</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,7 +4901,7 @@
         <v>266</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4905,7 +4909,7 @@
         <v>267</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4913,7 +4917,7 @@
         <v>268</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4921,7 +4925,7 @@
         <v>269</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4929,7 +4933,7 @@
         <v>270</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4937,7 +4941,7 @@
         <v>271</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4945,14 +4949,16 @@
         <v>272</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" t="s">
+        <v>1408</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4971,43 +4977,43 @@
         <v>249</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>277</v>
+        <v>1396</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>278</v>
+        <v>1397</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>488</v>
+        <v>1398</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>695</v>
+        <v>1399</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>938</v>
+        <v>1400</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1170</v>
+        <v>1401</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>248</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>279</v>
+        <v>1402</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>280</v>
+        <v>1403</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>489</v>
+        <v>1404</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>696</v>
+        <v>1405</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>939</v>
+        <v>1406</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>940</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5021,16 +5027,16 @@
         <v>276</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>1</v>
@@ -5039,19 +5045,19 @@
         <v>250</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5065,16 +5071,16 @@
         <v>276</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>1</v>
@@ -5083,19 +5089,19 @@
         <v>250</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5106,19 +5112,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -5136,19 +5142,19 @@
         <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -5166,19 +5172,19 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -5199,16 +5205,16 @@
         <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5226,19 +5232,19 @@
         <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -5256,19 +5262,19 @@
         <v>106</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -5286,19 +5292,19 @@
         <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -5316,19 +5322,19 @@
         <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -5346,19 +5352,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -5376,19 +5382,19 @@
         <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -5406,19 +5412,19 @@
         <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -5442,32 +5448,32 @@
         <v>47</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>252</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5478,19 +5484,19 @@
         <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -5508,19 +5514,19 @@
         <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -5538,19 +5544,19 @@
         <v>66</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -5568,19 +5574,19 @@
         <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -5598,19 +5604,19 @@
         <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -5628,19 +5634,19 @@
         <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -5658,19 +5664,19 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5688,19 +5694,19 @@
         <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5718,19 +5724,19 @@
         <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5748,19 +5754,19 @@
         <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5778,19 +5784,19 @@
         <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5808,19 +5814,19 @@
         <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5838,19 +5844,19 @@
         <v>30</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5868,19 +5874,19 @@
         <v>114</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5898,19 +5904,19 @@
         <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5928,19 +5934,19 @@
         <v>116</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5958,19 +5964,19 @@
         <v>67</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5991,16 +5997,16 @@
         <v>86</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -6018,19 +6024,19 @@
         <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -6048,19 +6054,19 @@
         <v>55</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -6078,19 +6084,19 @@
         <v>118</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -6108,19 +6114,19 @@
         <v>119</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -6144,13 +6150,13 @@
         <v>35</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -6174,13 +6180,13 @@
         <v>65</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -6201,16 +6207,16 @@
         <v>49</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -6228,19 +6234,19 @@
         <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -6258,19 +6264,19 @@
         <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -6288,19 +6294,19 @@
         <v>120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -6318,19 +6324,19 @@
         <v>53</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -6348,19 +6354,19 @@
         <v>121</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -6378,19 +6384,19 @@
         <v>33</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6408,19 +6414,19 @@
         <v>122</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6438,19 +6444,19 @@
         <v>123</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6468,19 +6474,19 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6498,19 +6504,19 @@
         <v>29</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6528,19 +6534,19 @@
         <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6558,19 +6564,19 @@
         <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6588,19 +6594,19 @@
         <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6618,19 +6624,19 @@
         <v>78</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6648,19 +6654,19 @@
         <v>127</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6678,19 +6684,19 @@
         <v>57</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6711,16 +6717,16 @@
         <v>19</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6738,19 +6744,19 @@
         <v>128</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6768,19 +6774,19 @@
         <v>129</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6798,19 +6804,19 @@
         <v>129</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6828,19 +6834,19 @@
         <v>129</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6858,19 +6864,19 @@
         <v>129</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6888,19 +6894,19 @@
         <v>129</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6918,19 +6924,19 @@
         <v>129</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6948,19 +6954,19 @@
         <v>129</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6984,13 +6990,13 @@
         <v>130</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -7008,19 +7014,19 @@
         <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -7038,19 +7044,19 @@
         <v>54</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -7068,19 +7074,19 @@
         <v>45</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -7098,19 +7104,19 @@
         <v>132</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -7128,19 +7134,19 @@
         <v>133</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -7158,19 +7164,19 @@
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -7188,19 +7194,19 @@
         <v>6</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -7218,19 +7224,19 @@
         <v>20</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -7248,19 +7254,19 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -7278,19 +7284,19 @@
         <v>13</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -7308,19 +7314,19 @@
         <v>37</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -7344,13 +7350,13 @@
         <v>58</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -7368,19 +7374,19 @@
         <v>69</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -7398,19 +7404,19 @@
         <v>70</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -7428,19 +7434,19 @@
         <v>71</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -7458,19 +7464,19 @@
         <v>25</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -7494,13 +7500,13 @@
         <v>25</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -7518,19 +7524,19 @@
         <v>135</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -7554,13 +7560,13 @@
         <v>7</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -7578,19 +7584,19 @@
         <v>136</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -7611,16 +7617,16 @@
         <v>5</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7638,19 +7644,19 @@
         <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -7674,13 +7680,13 @@
         <v>24</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -7698,19 +7704,19 @@
         <v>138</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -7728,19 +7734,19 @@
         <v>139</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -7758,19 +7764,19 @@
         <v>80</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -7788,19 +7794,19 @@
         <v>84</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -7818,19 +7824,19 @@
         <v>140</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7848,19 +7854,19 @@
         <v>141</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7878,19 +7884,19 @@
         <v>142</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7908,19 +7914,19 @@
         <v>143</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7938,19 +7944,19 @@
         <v>143</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7968,19 +7974,19 @@
         <v>143</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7998,19 +8004,19 @@
         <v>144</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -8031,16 +8037,16 @@
         <v>4</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -8058,19 +8064,19 @@
         <v>145</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -8088,19 +8094,19 @@
         <v>146</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -8118,19 +8124,19 @@
         <v>48</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -8148,19 +8154,19 @@
         <v>147</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -8178,19 +8184,19 @@
         <v>76</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -8208,19 +8214,19 @@
         <v>148</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -8238,19 +8244,19 @@
         <v>149</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -8268,19 +8274,19 @@
         <v>150</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -8298,19 +8304,19 @@
         <v>151</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -8328,19 +8334,19 @@
         <v>152</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -8358,19 +8364,19 @@
         <v>87</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -8388,19 +8394,19 @@
         <v>153</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -8418,19 +8424,19 @@
         <v>154</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -8448,19 +8454,19 @@
         <v>155</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -8478,19 +8484,19 @@
         <v>56</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8508,19 +8514,19 @@
         <v>156</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8538,38 +8544,38 @@
         <v>87</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8580,38 +8586,38 @@
         <v>87</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1" t="s">
         <v>251</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8622,19 +8628,19 @@
         <v>42</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -8652,19 +8658,19 @@
         <v>157</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8682,19 +8688,19 @@
         <v>158</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8712,19 +8718,19 @@
         <v>159</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8742,19 +8748,19 @@
         <v>83</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8772,19 +8778,19 @@
         <v>46</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8802,19 +8808,19 @@
         <v>46</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8832,19 +8838,19 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8862,19 +8868,19 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8892,19 +8898,19 @@
         <v>39</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8922,19 +8928,19 @@
         <v>50</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8952,19 +8958,19 @@
         <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8982,19 +8988,19 @@
         <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -9012,19 +9018,19 @@
         <v>164</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -9042,19 +9048,19 @@
         <v>164</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -9072,19 +9078,19 @@
         <v>165</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -9102,19 +9108,19 @@
         <v>166</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -9132,19 +9138,19 @@
         <v>167</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -9162,19 +9168,19 @@
         <v>168</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -9192,19 +9198,19 @@
         <v>52</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -9222,19 +9228,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -9252,19 +9258,19 @@
         <v>169</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -9282,19 +9288,19 @@
         <v>170</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9312,19 +9318,19 @@
         <v>171</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -9342,19 +9348,19 @@
         <v>77</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9372,19 +9378,19 @@
         <v>172</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9402,19 +9408,19 @@
         <v>17</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9432,19 +9438,19 @@
         <v>59</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9462,19 +9468,19 @@
         <v>173</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -9492,19 +9498,19 @@
         <v>63</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -9522,19 +9528,19 @@
         <v>174</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -9552,19 +9558,19 @@
         <v>73</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -9582,19 +9588,19 @@
         <v>175</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -9612,19 +9618,19 @@
         <v>176</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -9642,19 +9648,19 @@
         <v>177</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -9672,19 +9678,19 @@
         <v>178</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -9702,19 +9708,19 @@
         <v>179</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -9732,19 +9738,19 @@
         <v>180</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -9762,19 +9768,19 @@
         <v>181</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -9792,19 +9798,19 @@
         <v>22</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -9822,19 +9828,19 @@
         <v>182</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -9852,19 +9858,19 @@
         <v>183</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -9882,19 +9888,19 @@
         <v>184</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -9912,19 +9918,19 @@
         <v>185</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -9948,13 +9954,13 @@
         <v>85</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -9972,19 +9978,19 @@
         <v>79</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -10008,13 +10014,13 @@
         <v>61</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -10032,19 +10038,19 @@
         <v>186</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -10062,19 +10068,19 @@
         <v>187</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -10092,19 +10098,19 @@
         <v>188</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -10122,19 +10128,19 @@
         <v>81</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -10152,19 +10158,19 @@
         <v>189</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -10182,19 +10188,19 @@
         <v>190</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -10212,19 +10218,19 @@
         <v>191</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -10242,19 +10248,19 @@
         <v>192</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -10272,19 +10278,19 @@
         <v>193</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -10302,19 +10308,19 @@
         <v>194</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -10332,19 +10338,19 @@
         <v>195</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -10368,13 +10374,13 @@
         <v>18</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -10392,19 +10398,19 @@
         <v>196</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -10422,19 +10428,19 @@
         <v>197</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -10452,19 +10458,19 @@
         <v>198</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -10482,19 +10488,19 @@
         <v>199</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -10512,19 +10518,19 @@
         <v>200</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -10545,16 +10551,16 @@
         <v>72</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -10578,13 +10584,13 @@
         <v>34</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -10602,19 +10608,19 @@
         <v>201</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -10632,19 +10638,19 @@
         <v>202</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -10662,19 +10668,19 @@
         <v>203</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -10692,19 +10698,19 @@
         <v>204</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -10722,19 +10728,19 @@
         <v>205</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -10752,19 +10758,19 @@
         <v>206</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -10782,19 +10788,19 @@
         <v>207</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="G226" s="11" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -10812,19 +10818,19 @@
         <v>208</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -10842,19 +10848,19 @@
         <v>209</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -10872,19 +10878,19 @@
         <v>210</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -10902,19 +10908,19 @@
         <v>211</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -10932,19 +10938,19 @@
         <v>212</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -10962,19 +10968,19 @@
         <v>213</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -10992,19 +10998,19 @@
         <v>214</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -11022,19 +11028,19 @@
         <v>215</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -11052,19 +11058,19 @@
         <v>216</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -11082,19 +11088,19 @@
         <v>217</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -11112,19 +11118,19 @@
         <v>218</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -11142,19 +11148,19 @@
         <v>219</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -11172,19 +11178,19 @@
         <v>220</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -11202,19 +11208,19 @@
         <v>221</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -11232,19 +11238,19 @@
         <v>222</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -11262,19 +11268,19 @@
         <v>223</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -11292,19 +11298,19 @@
         <v>224</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -11322,19 +11328,19 @@
         <v>225</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -11352,19 +11358,19 @@
         <v>32</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -11382,19 +11388,19 @@
         <v>226</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="G246" s="11" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -11412,19 +11418,19 @@
         <v>227</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -11448,13 +11454,13 @@
         <v>51</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -11472,19 +11478,19 @@
         <v>228</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -11502,19 +11508,19 @@
         <v>229</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -11532,19 +11538,19 @@
         <v>230</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -11562,19 +11568,19 @@
         <v>231</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -11592,19 +11598,19 @@
         <v>232</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -11622,19 +11628,19 @@
         <v>233</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -11652,19 +11658,19 @@
         <v>68</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -11682,19 +11688,19 @@
         <v>234</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -11715,16 +11721,16 @@
         <v>12</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -11742,19 +11748,19 @@
         <v>235</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -11772,19 +11778,19 @@
         <v>236</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -11802,19 +11808,19 @@
         <v>237</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -11838,13 +11844,13 @@
         <v>60</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
@@ -11868,13 +11874,13 @@
         <v>23</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
@@ -11892,19 +11898,19 @@
         <v>238</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -11922,19 +11928,19 @@
         <v>64</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -11952,19 +11958,19 @@
         <v>239</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -11982,19 +11988,19 @@
         <v>240</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -12012,19 +12018,19 @@
         <v>21</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -12042,19 +12048,19 @@
         <v>241</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -12072,19 +12078,19 @@
         <v>88</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -12102,19 +12108,19 @@
         <v>14</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -12138,13 +12144,13 @@
         <v>38</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -12162,19 +12168,19 @@
         <v>27</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -12192,19 +12198,19 @@
         <v>242</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -12222,19 +12228,19 @@
         <v>243</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
@@ -12252,19 +12258,19 @@
         <v>244</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
@@ -12282,19 +12288,19 @@
         <v>245</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
@@ -12312,19 +12318,19 @@
         <v>28</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
@@ -12345,16 +12351,16 @@
         <v>276</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="H278" s="1" t="b">
         <v>1</v>
@@ -12363,19 +12369,19 @@
         <v>250</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -12386,19 +12392,19 @@
         <v>247</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
